--- a/msff/xls/NTUC+Aviva{recoll.xlsx
+++ b/msff/xls/NTUC+Aviva{recoll.xlsx
@@ -91,9 +91,6 @@
     <t>rider  q[MyShieldPlus]</t>
   </si>
   <si>
-    <t>627&lt;-536</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>pay day</t>
+  </si>
+  <si>
+    <t>644&lt;-627</t>
   </si>
 </sst>
 </file>
@@ -305,12 +305,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +615,7 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -669,21 +669,21 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="18">
         <v>42036</v>
@@ -720,10 +720,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -748,24 +748,24 @@
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>340</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="D11" s="15">
         <v>304</v>
@@ -794,12 +794,12 @@
         <v>4</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>41589</v>
@@ -833,18 +833,18 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -852,35 +852,35 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="25"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>600</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>2454.0500000000002</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="25"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>

--- a/msff/xls/NTUC+Aviva{recoll.xlsx
+++ b/msff/xls/NTUC+Aviva{recoll.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97815536-EBEC-4D98-B5AC-B1F909E015DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>March</t>
-  </si>
-  <si>
-    <t>GIRO</t>
   </si>
   <si>
     <t>DBS</t>
@@ -132,9 +130,6 @@
     <t>$137&lt;-117</t>
   </si>
   <si>
-    <t>$146&lt;-126</t>
-  </si>
-  <si>
     <t>$459 in 2019</t>
   </si>
   <si>
@@ -173,17 +168,23 @@
   </si>
   <si>
     <t>644&lt;-627</t>
+  </si>
+  <si>
+    <t>GIRO:</t>
+  </si>
+  <si>
+    <t>$152&lt;-126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -281,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -295,18 +296,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,6 +321,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -368,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,9 +405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,6 +457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +668,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -643,12 +681,12 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -661,7 +699,7 @@
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -669,21 +707,21 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>42036</v>
@@ -717,17 +755,17 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -748,24 +786,24 @@
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>340</v>
@@ -782,7 +820,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>304</v>
@@ -794,12 +832,12 @@
         <v>4</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>41589</v>
@@ -834,7 +872,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -844,7 +882,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -852,10 +890,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="24"/>
@@ -872,13 +910,13 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F20" s="24"/>
     </row>
